--- a/data.xlsx
+++ b/data.xlsx
@@ -1646,7 +1646,11 @@
           <t>德高物業服務有限公司</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>2773 1322</t>
@@ -1674,7 +1678,11 @@
           <t>聯邦保安有限公司</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>info@alliancesecurity.com.hk</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>2363 6232</t>
@@ -1702,7 +1710,11 @@
           <t>協超科技發展有限公司</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>3528 0310</t>
@@ -1730,7 +1742,11 @@
           <t>合誠管理有限公司</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>2395 5340</t>
@@ -1758,7 +1774,11 @@
           <t>滙安管理有限公司</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>info@alliedway.com.hk</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>3706 8162</t>
@@ -1786,7 +1806,11 @@
           <t>視訊通香港有限公司</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>admin@antek.com.hk</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>2341 7387</t>
@@ -1814,7 +1838,11 @@
           <t>凱域防盜系統有限公司</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>info@alphasecurityhk.com</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>2407 9453</t>
@@ -1838,7 +1866,11 @@
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>info@altasolutions.hk</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>3469 8810</t>
@@ -1866,7 +1898,11 @@
           <t>藍塘傲物業管理有限公司</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>2370 5825</t>
@@ -1894,7 +1930,11 @@
           <t>安滿停車場有限公司</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>admin@amano.com.hk</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>2570 5690</t>
@@ -1922,7 +1962,11 @@
           <t>安滿技術服務有限公司</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>enquiry@atsh.com.hk</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>2570 5690</t>
@@ -1950,7 +1994,11 @@
           <t>柏銳保安工程有限公司</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>info@ames.com.hk</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>3572 0186</t>
@@ -1978,7 +2026,11 @@
           <t>雅美來有限公司</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>wai@ami.hk</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>9045 5164</t>
@@ -2006,7 +2058,11 @@
           <t>恒富系統有限公司</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>jasonc@amplesys.com</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>3102 9313</t>
@@ -2034,7 +2090,11 @@
           <t>旭通保安護衛服務有限公司</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>3169 0050</t>
@@ -2062,7 +2122,11 @@
           <t>安樂工程貿易有限公司</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>info@atal.com</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>2561 8278</t>
@@ -2090,7 +2154,11 @@
           <t>安迪系統有限公司</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>info@andyhkltd.com</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>2264 2444</t>
@@ -2118,7 +2186,11 @@
           <t>安力電梯有限公司</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>info.hk@anlev.com</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>2561 8278</t>
@@ -2146,7 +2218,11 @@
           <t>安珀有限公司</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>anpa.info@anpa.com.hk</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>2543 9100</t>
@@ -2174,7 +2250,11 @@
           <t>安達電子科技(香港)有限公司</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>info@antexhk.com</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>3590 5325</t>
@@ -2202,7 +2282,11 @@
           <t>安域科技有限公司</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>info@anvione.com</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>2258 2208</t>
@@ -2230,7 +2314,11 @@
           <t>峰協有限公司</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>info@apexlinkage.com</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>9855 7652</t>
@@ -2258,7 +2346,11 @@
           <t>安盛保安及管理服務有限公司</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>2636 1133</t>
@@ -2286,7 +2378,11 @@
           <t>進一電子防盜工程有限公司</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>2782 2122</t>
@@ -2310,7 +2406,11 @@
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>enquiry@appsuccesshk.com</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>9437 0537</t>
@@ -2338,7 +2438,11 @@
           <t>康珹系統有限公司</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>sales@arcon.com.hk</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>2518 4826</t>
@@ -2366,7 +2470,11 @@
           <t>雅圖系統有限公司</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>sales@arcotech.com.hk</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>3110 2134</t>
@@ -2390,7 +2498,11 @@
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>info@arctech-hk.com</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>5199 0586</t>
@@ -2418,7 +2530,11 @@
           <t>銀進工程及測試有限公司</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>info@argent.com.hk</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>2473 0591</t>
@@ -2446,7 +2562,11 @@
           <t>毅高安保建設有限公司</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>2242 3368</t>
@@ -2474,7 +2594,11 @@
           <t>高視保有限公司</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>cs@ismartview.com</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>3110 1862</t>
@@ -2502,7 +2626,11 @@
           <t>現代保鏢有限公司</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>2755 4793</t>
@@ -2530,7 +2658,11 @@
           <t>安聯集團控股有限公司</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>admin@arrano.com.hk</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>3690 1098</t>
@@ -2558,7 +2690,11 @@
           <t>安聯保安有限公司</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>admin@arrano.com.hk</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>3690 1098</t>
@@ -2582,7 +2718,11 @@
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>info@security-risksolutions.com</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>3460 2607</t>
@@ -2610,7 +2750,11 @@
           <t>藝致工程有限公司</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>3709 6218</t>
@@ -2638,7 +2782,11 @@
           <t>奧雅納香港有限公司</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>hongkong@arup.com</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>2528 3031</t>
@@ -2662,7 +2810,11 @@
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>2882 2088</t>
@@ -2690,7 +2842,11 @@
           <t>先達系統有限公司</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>info@aschk.com</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>2771 9293</t>
@@ -2718,7 +2874,11 @@
           <t>弘瑞保安系統(香港)有限公司</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>info@ascnis.com</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>3416 4700</t>
@@ -2746,7 +2906,11 @@
           <t>尚穎物業服務有限公司</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>winnie.wan@ascenthr.com.hk</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>2631 2293</t>
@@ -2774,7 +2938,11 @@
           <t>永興保安及管理服務有限公司</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>winnie.wan@ascenthr.com.hk</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>2178 2909</t>
@@ -2802,7 +2970,11 @@
           <t>亞太樓宇管理有限公司</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>info@apac.com.hk</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>2151 0662</t>
@@ -2830,7 +3002,11 @@
           <t>亞太人力資源服務有限公司</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>info@apac.com.hk</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>2157 9499</t>
@@ -2858,7 +3034,11 @@
           <t>亞洲警衛有限公司</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>3523 0533</t>
@@ -2886,7 +3066,11 @@
           <t>亞洲管理有限公司</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>3102 8422</t>
@@ -2910,7 +3094,11 @@
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>3468 5154</t>
@@ -2938,7 +3126,11 @@
           <t>華埠有限公司</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>2545 0223</t>
@@ -2966,7 +3158,11 @@
           <t>亞證物業管理有限公司</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>info@asiasec.com.hk</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>2828 0288</t>
@@ -2994,7 +3190,11 @@
           <t>亞洲國際博覽館管理有限公司</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>info@asiaworld-expo.com</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>3606 8888</t>
@@ -3022,7 +3222,11 @@
           <t>聯誼工程有限公司</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>info@ael.hk</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>2767 1000</t>
@@ -3050,7 +3254,11 @@
           <t>華信保安服務有限公司</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>2558 5228</t>
@@ -3078,7 +3286,11 @@
           <t>安樂機電設備工程有限公司</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>enquiry@atalbs.com.hk</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>2561 8278</t>
@@ -3106,7 +3318,11 @@
           <t>安樂數據中心基建有限公司</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>info.dci@atal.com</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>2561 8278</t>
@@ -3134,7 +3350,11 @@
           <t>安樂工程有限公司</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>info@atal.com</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>2561 8278</t>
@@ -3162,7 +3382,11 @@
           <t>安樂科技工程有限公司</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>info.icbt@atal.com</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>2561 8278</t>
@@ -3190,7 +3414,11 @@
           <t>鉑力工程有限公司</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>info@atelier-hk.com</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>2145 0355</t>
@@ -3218,7 +3446,11 @@
           <t>歐洲電器有限公司</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>info@auchowele.com</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>2543 0205</t>
@@ -3242,7 +3474,11 @@
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>ymszeto@aub.com.hk</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>2375 6110</t>
@@ -3270,7 +3506,11 @@
           <t>音響系統顧問(亞洲)有限公司</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>info@avscl.com</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>2362 6863</t>
@@ -3298,7 +3538,11 @@
           <t>澳大利物業管理有限公司</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>2893 5779</t>
@@ -3326,7 +3570,11 @@
           <t>自動系統(香港)有限公司</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>enquiry@asl.com.hk</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>2601 6998</t>
@@ -3354,7 +3602,11 @@
           <t>快易通有限公司</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>cs@autotoll.com.hk</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>3182 1358</t>
@@ -3382,7 +3634,11 @@
           <t>機場保安有限公司</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>am_os@avseco.com.hk</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>2949 8181</t>
@@ -3406,7 +3662,11 @@
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>enquiry@avit.hk</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>3575 9585</t>
@@ -3434,7 +3694,11 @@
           <t>卓昇設施服務控股有限公司</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>info@avlfs.com</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>3997 3955</t>
@@ -3462,7 +3726,11 @@
           <t>安揚菲科技有限公司</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>2671 7336</t>
@@ -3490,7 +3758,11 @@
           <t>保狄電子系統有限公司</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>3107 0018</t>
@@ -3518,7 +3790,11 @@
           <t>聯科工程有限公司</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>sales@btel.com.hk</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>2975 9000</t>
@@ -3546,7 +3822,11 @@
           <t>殷富科技顧問有限公司</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>info@bap.com.hk</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>2571 8289</t>
@@ -3574,7 +3854,11 @@
           <t>歷豪產業管理有限公司</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>2520 5060</t>
@@ -3602,7 +3886,11 @@
           <t>萬昌自控工程有限公司</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>controls@bashk.com</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>2140 9788</t>
@@ -3630,7 +3918,11 @@
           <t>熊威服務有限公司</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>2845 3109</t>
@@ -3658,7 +3950,11 @@
           <t>麗苑物業管理有限公司</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>2489 9248</t>
@@ -3686,7 +3982,11 @@
           <t>中怡物業顧問有限公司</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>3106 3750</t>
@@ -3714,7 +4014,11 @@
           <t>必通工程有限公司</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>info@bestcom.com.hk</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>2763 0620</t>
@@ -3742,7 +4046,11 @@
           <t>百圖系統有限公司</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sales@betaones.com</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>3797 7280</t>
@@ -3770,7 +4078,11 @@
           <t>貝通(香港)電子設備有限公司</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>betterhkpublic@gmail.com</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>2356 2308</t>
@@ -3798,7 +4110,11 @@
           <t>佳迪策劃有限公司</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>info@bettermentsolutions.com.hk</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>2988 8967</t>
@@ -3826,7 +4142,11 @@
           <t>柏高保(香港)有限公司</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>2545 3352</t>
@@ -3854,7 +4174,11 @@
           <t>京投交通科技(香港)有限公司</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>enquiry@biitt.hk</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>2798 7339</t>
@@ -3882,7 +4206,11 @@
           <t>保基物業管理有限公司</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>2851 9643</t>
@@ -3910,7 +4238,11 @@
           <t>綻放工程有限公司</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>2392 8110</t>
@@ -3938,7 +4270,11 @@
           <t>藍海國際安保有限公司</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>2387 8198</t>
@@ -3966,7 +4302,11 @@
           <t>嵐天保安系統有限公司</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>info@blue-sky.com.hk</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>2322 8831</t>
@@ -3994,7 +4334,11 @@
           <t>藍天服務有限公司</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>2797 9298</t>
@@ -4022,7 +4366,11 @@
           <t>藍鋼保安顧問有限公司</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>sales@bluing.com.hk</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>2122 9777</t>
@@ -4050,7 +4398,11 @@
           <t>堡盈管理服務有限公司</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>3108 9098</t>
@@ -4074,7 +4426,11 @@
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>enquiry.hk@boldyn.com</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>2857 3698</t>
@@ -4102,7 +4458,11 @@
           <t>邦盛服務有限公司</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>4641 7732</t>
@@ -4130,7 +4490,11 @@
           <t>邦威網絡方案有限公司</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>bongrise@gmail.com</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>2811 1669</t>
@@ -4158,7 +4522,11 @@
           <t>本祺停車場有限公司</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>enquire@lawsproperties.com</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>2371 1988</t>
@@ -4186,7 +4554,11 @@
           <t>寶時科技(香港)有限公司</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>info@bosstec.hk</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>2156 0856</t>
@@ -4214,7 +4586,11 @@
           <t>必程科技有限公司</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>info@bridging-techno.com</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>3907 8326</t>
@@ -4274,7 +4650,11 @@
           <t>永年(創科)設施管理有限公司</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>3188 4223</t>
@@ -4302,7 +4682,11 @@
           <t>縉帆服務有限公司</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
           <t>3568 4970</t>
@@ -4330,7 +4714,11 @@
           <t>布林克金融物流(香港)有限公司</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>cashservices.sales.hk@brinks.com</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
           <t>2242 8018</t>
@@ -4358,7 +4746,11 @@
           <t>布林克金融物流(香港)有限公司</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>cashservices.sales.hk@brinks.com</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>2242 8018</t>
@@ -4386,7 +4778,11 @@
           <t>布林克香港有限公司</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>cashservices.sales.hk@brinks.com</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>3798 2935</t>
@@ -4414,7 +4810,11 @@
           <t>布林克香港有限公司</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>cashservices.sales.hk@brinks.com</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>2615 3573</t>
@@ -4442,7 +4842,11 @@
           <t>滙秀企業有限公司</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>info@urban.com.hk</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>2626 7333</t>
@@ -4470,7 +4874,11 @@
           <t>歌達管理有限公司</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>2516 6978</t>
@@ -4498,7 +4906,11 @@
           <t>寶威物業管理有限公司</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>info@burwellprop.com</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>2845 3109</t>
@@ -4526,7 +4938,11 @@
           <t>嘉福機電工程有限公司</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>info@bymehk.com</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>2881 6690</t>
@@ -4554,7 +4970,11 @@
           <t>信安智能保安技術有限公司</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>info@cssmartsafe.com.hk</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>2911 9500</t>
@@ -4582,7 +5002,11 @@
           <t>信安智能系統有限公司</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>info@cssmartsafe.com.hk</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
           <t>2911 9518</t>
@@ -4610,7 +5034,11 @@
           <t>思域香港有限公司</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr">
         <is>
           <t>2787 4837</t>
@@ -4638,7 +5066,11 @@
           <t>萊坊物業管理有限公司</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>info@cpps.com.hk</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
           <t>2840 1177</t>
@@ -4666,7 +5098,11 @@
           <t>創耀管理有限公司</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>3102 8664</t>
@@ -4694,7 +5130,11 @@
           <t>雅舒曼(香港)有限公司</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>info@casheimer.com.hk</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>2741 3821</t>
@@ -4722,7 +5162,11 @@
           <t>天光電訊有限公司</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>cableffusion@hutchcity.com</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>2408 6533</t>
@@ -4750,7 +5194,11 @@
           <t>金達科技有限公司</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>info@cadex.com.hk</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
           <t>2408 3863</t>
@@ -4778,7 +5226,11 @@
           <t>校園設施管理有限公司</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr">
         <is>
           <t>3955 8155</t>
@@ -4806,7 +5258,11 @@
           <t>建豐物業管理有限公司</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
           <t>3468 5661</t>
@@ -4834,7 +5290,11 @@
           <t>富和營造有限公司</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>2385 1118</t>
@@ -4862,7 +5322,11 @@
           <t>佳能香港有限公司</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>supply@chk.canon.com.hk</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
           <t>2170 2828</t>
@@ -4890,7 +5354,11 @@
           <t>聯泰保安顧問有限公司</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>2531 8799</t>
@@ -4918,7 +5386,11 @@
           <t>富都系統有限公司</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>sales@capcom.com.hk</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>2713 9129</t>
@@ -4942,7 +5414,11 @@
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>info@capsechk.com</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>3489 6900</t>
@@ -4970,7 +5446,11 @@
           <t>嘉利信電子工程有限公司</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
           <t>2411 6890</t>
@@ -4998,7 +5478,11 @@
           <t>安嶪管理服務有限公司</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>info@jsgroup.asia</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>2406 7089</t>
@@ -5026,7 +5510,11 @@
           <t>嘉信管理有限公司</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
           <t>3184 0339</t>
@@ -5054,7 +5542,11 @@
           <t>名門物業管理有限公司</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>cartermanagement@gmail.com</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>3904 3904</t>
@@ -5082,7 +5574,11 @@
           <t>世邦魏理仕顧問香港有限公司</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>vasadmin@cbre.com.hk</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
           <t>2820 2800</t>
@@ -5106,7 +5602,11 @@
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
           <t>2820 2800</t>
@@ -5134,7 +5634,11 @@
           <t>世邦魏理仕有限公司</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>IPM.hongkong@cbre.com.hk</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
           <t>2820 2800</t>
@@ -5162,7 +5666,11 @@
           <t>世邦魏理仕物業服務有限公司</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>IPM.hongkong@cbre.com.hk</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
           <t>2820 2800</t>
@@ -5190,7 +5698,11 @@
           <t>廣信科技工程有限公司</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr">
         <is>
           <t>2770 0099</t>
@@ -5218,7 +5730,11 @@
           <t>開運(集團)管理有限公司</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>recuit.cpm@gmail.com</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>2300 1786</t>
@@ -5242,7 +5758,11 @@
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>3658 1888</t>
@@ -5266,7 +5786,11 @@
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>joychow@centralplaza.com.hk</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
           <t>2586 8111</t>
@@ -5294,7 +5818,11 @@
           <t>中興保安服務有限公司</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
           <t>2558 5228</t>
@@ -5322,7 +5850,11 @@
           <t>展卓科技有限公司</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>info@centric-tech.com</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
           <t>2264 8211</t>
@@ -5350,7 +5882,11 @@
           <t>萬事達電子貿易有限公司</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>2388 4671</t>
@@ -5378,7 +5914,11 @@
           <t>世紀服務有限公司</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>cliofy_ng@certiscenturion.com.hk</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>2484 2333</t>
@@ -5406,7 +5946,11 @@
           <t>世紀安保科技(香港)有限公司</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>sales01@century-security.net</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr">
         <is>
           <t>2484 2333</t>
@@ -5434,7 +5978,11 @@
           <t>世紀安保科技(香港)有限公司</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
           <t>2484 2333</t>
@@ -5462,7 +6010,11 @@
           <t>新裕科技有限公司</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>info@cethk.com</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>3421 1700</t>
@@ -5490,7 +6042,11 @@
           <t>世紀國際物業管理有限公司</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
           <t>2180 9080</t>
@@ -5518,7 +6074,11 @@
           <t>施朗工程有限公司</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>info@ceylon-hk.com</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>2498 3481</t>
@@ -5546,7 +6106,11 @@
           <t>湛黃物業管理有限公司</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>2300 1820</t>
@@ -5574,7 +6138,11 @@
           <t>創品商務信息有限公司</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>info@cbintel.com.hk</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>2988 8246</t>
@@ -5602,7 +6170,11 @@
           <t>冠通科技有限公司</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
           <t>2498 8079</t>
@@ -5630,7 +6202,11 @@
           <t>陳嘉輝龍獅總會有限公司</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
           <t>2415 3888</t>
@@ -5658,7 +6234,11 @@
           <t>全通系統有限公司</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>info@channel-sys.com</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
           <t>2699 9001</t>
@@ -5686,7 +6266,11 @@
           <t>卓思行有限公司</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>eric@charlesws.com</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr">
         <is>
           <t>2116 0394</t>
@@ -5714,7 +6298,11 @@
           <t>昭亨有限公司</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>chartergloryhk@gmail.com</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
           <t>2367 1338</t>
@@ -5742,7 +6330,11 @@
           <t>昌輝物業管理有限公司</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E187" t="inlineStr">
         <is>
           <t>2893 2683</t>
@@ -5770,7 +6362,11 @@
           <t>匯駿工程香港有限公司</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
           <t>2191 4201</t>
@@ -5798,7 +6394,11 @@
           <t>志高科技(香港)有限公司</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>mail@checol.com</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>2560 7011</t>
@@ -5826,7 +6426,11 @@
           <t>至興物業管理有限公司</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>admin@cppml.com.hk</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>3689 0700</t>
@@ -5854,7 +6458,11 @@
           <t>至興服務有限公司</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>3689 0700</t>
@@ -5882,7 +6490,11 @@
           <t>正詣實業有限公司</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
           <t>3572 0125</t>
@@ -5910,7 +6522,11 @@
           <t>正詣實業有限公司</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>3572 0125</t>
@@ -5938,7 +6554,11 @@
           <t>昌生物業代理及管理有限公司</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
           <t>2522 9847</t>
@@ -5966,7 +6586,11 @@
           <t>堅榮物業管理有限公司</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>onlineshop@uicl.com.hk</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>2473 3211</t>
@@ -5994,7 +6618,11 @@
           <t>卓能物業管理有限公司</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>info@cheuknang.com.hk</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
           <t>2526 7799</t>
@@ -6022,7 +6650,11 @@
           <t>祥興電子電器工程有限公司</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>info@cheunghingelectronic.com</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
           <t>2569 4100</t>
@@ -6050,7 +6682,11 @@
           <t>長江集團中心物業管理有限公司</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
           <t>2121 8368</t>
@@ -6078,7 +6714,11 @@
           <t>祥龍電子工程有限公司</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>info@cle.com.hk</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
           <t>2345 7613</t>
@@ -6106,7 +6746,11 @@
           <t>翔威工程有限公司</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>info@cheungwai.com</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr">
         <is>
           <t>3997 3925</t>
@@ -6134,7 +6778,11 @@
           <t>其士(香港)有限公司</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>chkl_enquiry@chevalier.com</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>2318 1818</t>
@@ -6162,7 +6810,11 @@
           <t>其士(衞星通訊)有限公司</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>info_cnk@chevalier.com</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>2953 3313</t>
@@ -6190,7 +6842,11 @@
           <t>其士富居物業管理有限公司</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>general@chevalierpropmgt.com.hk</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>2758 8632</t>
@@ -6218,7 +6874,11 @@
           <t>其士保安服務有限公司</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>chkl_enquiry@chevalier.com</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>2331 6313</t>
@@ -6246,7 +6906,11 @@
           <t>置富花園有限公司</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>cffy@chifufayuen.hk</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>2828 5123</t>
@@ -6274,7 +6938,11 @@
           <t>興華創建有限公司</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>1487031817@qq.com</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
           <t>3464 0701</t>
@@ -6302,7 +6970,11 @@
           <t>中國通信服務香港有限公司</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>ir@chinaccs.com.hk</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
           <t>2369 1988</t>
@@ -6330,7 +7002,11 @@
           <t>漢玉科技有限公司</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>info@chinagem.com.hk</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr">
         <is>
           <t>2858 5566</t>
@@ -6358,7 +7034,11 @@
           <t>招商局物流集團香港有限公司</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>relation@cmhk.com</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr">
         <is>
           <t>2852 7688</t>
@@ -6386,7 +7066,11 @@
           <t>招商局物業管理(香港)有限公司</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>hmpm29@cmpd.com.hk</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
           <t>2102 8300</t>
@@ -6414,7 +7098,11 @@
           <t>招商局物業管理(海外)有限公司</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>hmpm29@cmpd.com.hk</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
           <t>2548 7318</t>
@@ -6442,7 +7130,11 @@
           <t>中國移動香港有限公司</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>pr@hk.chinamobile.com</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>2945 8000</t>
@@ -6470,7 +7162,11 @@
           <t>中國移動國際有限公司</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>info@cmi.chinamobile.com</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr">
         <is>
           <t>3975 6688</t>
@@ -6498,7 +7194,11 @@
           <t>中國海外物業服務有限公司</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>cohlgcp@cohl.com</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr">
         <is>
           <t>2823 7088</t>
@@ -6526,7 +7226,11 @@
           <t>中國海外保安有限公司</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>paul_fong@cohl.com</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
           <t>2823 7088</t>
@@ -6554,7 +7258,11 @@
           <t>中國鐵路工程(香港)有限公司</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>jonathan-chuk@crec.com.hk</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
           <t>2191 3800</t>
@@ -6582,7 +7290,11 @@
           <t>華潤物流(百適企業)有限公司</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E217" t="inlineStr">
         <is>
           <t>2606 7638</t>
@@ -6610,7 +7322,11 @@
           <t>華潤物業管理有限公司</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
           <t>2828 5688</t>
@@ -6638,7 +7354,11 @@
           <t>中國建築機電工程有限公司</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E219" t="inlineStr">
         <is>
           <t>2823 7821</t>
@@ -6666,7 +7386,11 @@
           <t>中能置業有限公司</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>3559 2200</t>
@@ -6694,7 +7418,11 @@
           <t>中國鐵通香港電信有限公司</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E221" t="inlineStr">
         <is>
           <t>2185 7187</t>
@@ -6722,7 +7450,11 @@
           <t>香港中旅科技電腦有限公司</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E222" t="inlineStr">
         <is>
           <t>2853 3200</t>
@@ -6750,7 +7482,11 @@
           <t>中國聯通(香港)運營有限公司</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr">
         <is>
           <t>2621 3868</t>
@@ -6778,7 +7514,11 @@
           <t>中望物業管理有限公司</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E224" t="inlineStr">
         <is>
           <t>2525 0085</t>
@@ -6806,7 +7546,11 @@
           <t>華特工程(國際)有限公司</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
           <t>2764 1123</t>
@@ -6834,7 +7578,11 @@
           <t>華特工程有限公司</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E226" t="inlineStr">
         <is>
           <t>2333 0001</t>
@@ -6862,7 +7610,11 @@
           <t>中達物業管理有限公司</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
           <t>9259 4291</t>
@@ -6890,7 +7642,11 @@
           <t>漢昇集團有限公司</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E228" t="inlineStr">
         <is>
           <t>3188 9254</t>
@@ -6918,7 +7674,11 @@
           <t>先達集團有限公司</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
           <t>2319 2668</t>
@@ -6946,7 +7706,11 @@
           <t>正興管理有限公司</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr">
         <is>
           <t>2426 7766</t>
@@ -6974,7 +7738,11 @@
           <t>建聯工程設備有限公司</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Error: Gemini call failed</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr">
         <is>
           <t>3798 3833</t>

--- a/data.xlsx
+++ b/data.xlsx
@@ -760,7 +760,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Error: Gemini call failed</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Error: Gemini call failed</t>
+          <t>leasing@crclogistics.com</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Error: Gemini call failed</t>
+          <t>crpl@crc.com.hk</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Error: Gemini call failed</t>
+          <t>applelau@cohl.com</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -7386,11 +7386,7 @@
           <t>中能置業有限公司</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Error: Gemini call failed</t>
-        </is>
-      </c>
+      <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
           <t>3559 2200</t>
@@ -7418,11 +7414,7 @@
           <t>中國鐵通香港電信有限公司</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Error: Gemini call failed</t>
-        </is>
-      </c>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
           <t>2185 7187</t>
@@ -7450,11 +7442,7 @@
           <t>香港中旅科技電腦有限公司</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Error: Gemini call failed</t>
-        </is>
-      </c>
+      <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
           <t>2853 3200</t>
@@ -7482,11 +7470,7 @@
           <t>中國聯通(香港)運營有限公司</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Error: Gemini call failed</t>
-        </is>
-      </c>
+      <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
           <t>2621 3868</t>
@@ -7514,11 +7498,7 @@
           <t>中望物業管理有限公司</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Error: Gemini call failed</t>
-        </is>
-      </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
           <t>2525 0085</t>
@@ -7546,11 +7526,7 @@
           <t>華特工程(國際)有限公司</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Error: Gemini call failed</t>
-        </is>
-      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
           <t>2764 1123</t>
@@ -7578,11 +7554,7 @@
           <t>華特工程有限公司</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Error: Gemini call failed</t>
-        </is>
-      </c>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
           <t>2333 0001</t>
@@ -7610,11 +7582,7 @@
           <t>中達物業管理有限公司</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Error: Gemini call failed</t>
-        </is>
-      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
           <t>9259 4291</t>
@@ -7642,11 +7610,7 @@
           <t>漢昇集團有限公司</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Error: Gemini call failed</t>
-        </is>
-      </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
           <t>3188 9254</t>
@@ -7674,11 +7638,7 @@
           <t>先達集團有限公司</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Error: Gemini call failed</t>
-        </is>
-      </c>
+      <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
           <t>2319 2668</t>
@@ -7706,11 +7666,7 @@
           <t>正興管理有限公司</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Error: Gemini call failed</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
           <t>2426 7766</t>
@@ -7738,11 +7694,7 @@
           <t>建聯工程設備有限公司</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Error: Gemini call failed</t>
-        </is>
-      </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
           <t>3798 3833</t>

--- a/data.xlsx
+++ b/data.xlsx
@@ -7386,7 +7386,11 @@
           <t>中能置業有限公司</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>3559 2200</t>

--- a/data.xlsx
+++ b/data.xlsx
@@ -7418,7 +7418,11 @@
           <t>中國鐵通香港電信有限公司</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>xuss@ctthk.com</t>
+        </is>
+      </c>
       <c r="E221" t="inlineStr">
         <is>
           <t>2185 7187</t>
@@ -7446,7 +7450,11 @@
           <t>香港中旅科技電腦有限公司</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>hitech@ctg.cn</t>
+        </is>
+      </c>
       <c r="E222" t="inlineStr">
         <is>
           <t>2853 3200</t>
@@ -7474,7 +7482,11 @@
           <t>中國聯通(香港)運營有限公司</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>hk-info@chinaunicom.cn</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr">
         <is>
           <t>2621 3868</t>
@@ -7502,7 +7514,11 @@
           <t>中望物業管理有限公司</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E224" t="inlineStr">
         <is>
           <t>2525 0085</t>
@@ -7530,7 +7546,11 @@
           <t>華特工程(國際)有限公司</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>sales@china-tech.com</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
           <t>2764 1123</t>
@@ -7558,7 +7578,11 @@
           <t>華特工程有限公司</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>sales@china-tech.com</t>
+        </is>
+      </c>
       <c r="E226" t="inlineStr">
         <is>
           <t>2333 0001</t>
@@ -7586,7 +7610,11 @@
           <t>中達物業管理有限公司</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
           <t>9259 4291</t>
@@ -7614,7 +7642,11 @@
           <t>漢昇集團有限公司</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E228" t="inlineStr">
         <is>
           <t>3188 9254</t>
@@ -7642,7 +7674,11 @@
           <t>先達集團有限公司</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>info@chinetek.com</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
           <t>2319 2668</t>
@@ -7670,7 +7706,11 @@
           <t>正興管理有限公司</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr">
         <is>
           <t>2426 7766</t>
@@ -7698,7 +7738,11 @@
           <t>建聯工程設備有限公司</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>general@cagl.com.hk</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr">
         <is>
           <t>3798 3833</t>
@@ -7726,7 +7770,11 @@
           <t>建盈物業管理有限公司</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>general@chinneyhonkwok.com</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr">
         <is>
           <t>2912 3711</t>
@@ -7754,7 +7802,11 @@
           <t>捷成電子工程有限公司</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>ceel@netvigator.com</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
           <t>2715 6321</t>
@@ -7782,7 +7834,11 @@
           <t>創興電子工程(香港)有限公司</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>info@chonghingelec.com</t>
+        </is>
+      </c>
       <c r="E234" t="inlineStr">
         <is>
           <t>3583 1901</t>
@@ -7810,7 +7866,11 @@
           <t>創東工程有限公司</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
           <t>2777 5083</t>
@@ -7838,7 +7898,11 @@
           <t>創威電子系統有限公司</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>info@cw.hk</t>
+        </is>
+      </c>
       <c r="E236" t="inlineStr">
         <is>
           <t>2679 3837</t>
@@ -7866,7 +7930,11 @@
           <t>創軒科技有限公司</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E237" t="inlineStr">
         <is>
           <t>3905 1230</t>
@@ -7894,7 +7962,11 @@
           <t>集寶香港有限公司</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>enquiryhk_chlife@chubb.com</t>
+        </is>
+      </c>
       <c r="E238" t="inlineStr">
         <is>
           <t>2746 9628</t>
@@ -7922,7 +7994,11 @@
           <t>臻柏服務(香港)有限公司</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
           <t>2366 6119</t>
@@ -7950,7 +8026,11 @@
           <t>鎮城物業管理及保安有限公司</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>info@chungsingpms.com</t>
+        </is>
+      </c>
       <c r="E240" t="inlineStr">
         <is>
           <t>3618 7780</t>
@@ -7978,7 +8058,11 @@
           <t>晉誠系統有限公司</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E241" t="inlineStr">
         <is>
           <t>2653 3083</t>
@@ -8006,7 +8090,11 @@
           <t>中團保安有限公司</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E242" t="inlineStr">
         <is>
           <t>2898 4780</t>
@@ -8062,7 +8150,11 @@
           <t>進業保安及護衛有限公司</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E244" t="inlineStr">
         <is>
           <t>2508 1121</t>
@@ -8090,7 +8182,11 @@
           <t>進源保安服務有限公司</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E245" t="inlineStr">
         <is>
           <t>2661 8665</t>
@@ -8118,7 +8214,11 @@
           <t>中興工程有限公司</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>info@chunghingeng.com</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr">
         <is>
           <t>2574 3211</t>
@@ -8146,7 +8246,11 @@
           <t>中港管業顧問有限公司</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E247" t="inlineStr">
         <is>
           <t>3709 6228</t>
@@ -8174,7 +8278,11 @@
           <t>中信企業地產代理有限公司</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>contact@citic.com</t>
+        </is>
+      </c>
       <c r="E248" t="inlineStr">
         <is>
           <t>2168 2735</t>
@@ -8202,7 +8310,11 @@
           <t>中信大廈管理有限公司</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Property@citicpacific.com</t>
+        </is>
+      </c>
       <c r="E249" t="inlineStr">
         <is>
           <t>2104 6729</t>
@@ -8230,7 +8342,11 @@
           <t>城寶物業服務管理有限公司</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="E250" t="inlineStr">
         <is>
           <t>2413 8999</t>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8374,7 +8374,11 @@
           <t>城寶科技有限公司</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>mail@citi-pro.com.hk</t>
+        </is>
+      </c>
       <c r="E251" t="inlineStr">
         <is>
           <t>2399 7282</t>
